--- a/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,68</t>
+          <t>0,0; 8,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,41</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,2</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,2</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-57,23%</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-84,56%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,67%</t>
+          <t>-84,14%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-77,76%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-74,79%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 5,76</t>
+          <t>-1,85; 3,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,9; -3,51</t>
+          <t>-22,58; -0,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,48; -11,32</t>
+          <t>-23,64; 0,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,69</t>
+          <t>-24,54; 0,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -40,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 73,64</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,91</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-8,35%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>131,62%</t>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>127,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-65,36%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 19,56</t>
+          <t>-4,25; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 36,64</t>
+          <t>0,49; 5,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 28,36</t>
+          <t>-1,37; 4,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; 0,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -834,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-42,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-63,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-69,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 3,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,78; -0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-88,84; 51,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-94,24; 104,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,99; 16,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-59,99%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-60,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-75,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 2,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 0,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 0,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-12,33; 0,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-70,92; 448,06</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 174,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-97,39; 121,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 20,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>1.514311758619071</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.050341429250599</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,43</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,8</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>39,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-84,14%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-77,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-74,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 3,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; -0,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-23,64; 0,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,54; 0,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 73,64</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.5861927052053276</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.544678350088354</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.02162561330914</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-5.681134133113407</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.552232598796212</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.8122421227106582</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.7500939995884076</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.7391317074951471</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-8,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>127,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-65,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.511159135863395</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-18.93319517299696</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-22.26292130995604</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-24.33955535036479</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 2,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 5,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 4,45</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 0,74</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.435744380213043</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.03136742378115016</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5986568196555268</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.942196462722077</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>0.8360593582387855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +783,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.03299197679804411</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.952587400082664</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.360774241124739</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.037490331977118</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.01647289266447462</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.650656475089489</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6446371655903699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.637807893782383</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4621872102636201</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.089720144822533</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.431401465805862</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.353756219478078</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.138253362438302</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.797915163619442</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.6039759827570338</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>27,84%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-59,99%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-60,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-75,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 2,36</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 0,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 0,8</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,33; 0,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-70,92; 448,06</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 174,25</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-97,39; 121,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 20,35</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.5114056449880959</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.53955307815379</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.117671503530015</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.299624967479104</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4008354724548988</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.5494101642706124</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.5677956120947425</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.7507245079427746</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.221700405804353</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.641663432182642</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.625643749659247</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.60711147639545</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.688357020667276</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.9714791184086763</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.563664448235243</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8951506859271997</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9355651814392179</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2691283399553777</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.873350944660118</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.803485641776486</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.340985627708694</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2554901818945383</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
